--- a/raportPrac.xlsx
+++ b/raportPrac.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacek\Desktop\SmartJourney\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -275,6 +275,70 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -331,70 +395,6 @@
         <b/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDDEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDDEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDDEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDDEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -409,40 +409,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="B1:D7" totalsRowShown="0" totalsRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="B1:D7" totalsRowShown="0" totalsRowDxfId="11">
   <autoFilter ref="B1:D7"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Wykonane zadanie" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="Ilość poświęconego czasu(h)" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="Opis działania " totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Wykonane zadanie" totalsRowDxfId="10"/>
+    <tableColumn id="2" name="Ilość poświęconego czasu(h)" totalsRowDxfId="9"/>
+    <tableColumn id="3" name="Opis działania " totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela14372" displayName="Tabela14372" ref="B9:D22" totalsRowCount="1" totalsRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela14372" displayName="Tabela14372" ref="B9:D22" totalsRowCount="1" totalsRowDxfId="7">
   <autoFilter ref="B9:D21"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Wykonane zadanie" totalsRowDxfId="10"/>
-    <tableColumn id="2" name="Ilość poświęconego czasu(h)" totalsRowFunction="custom" totalsRowDxfId="9">
+    <tableColumn id="1" name="Wykonane zadanie" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Ilość poświęconego czasu(h)" totalsRowFunction="custom" totalsRowDxfId="5">
       <totalsRowFormula>SUM(C10:C21)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Opis działania " totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Opis działania " totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela1435" displayName="Tabela1435" ref="B23:D30" totalsRowCount="1" totalsRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela1435" displayName="Tabela1435" ref="B23:D30" totalsRowCount="1" totalsRowDxfId="3">
   <autoFilter ref="B23:D29"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Wykonane zadanie" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Ilość poświęconego czasu(h)" totalsRowFunction="custom" totalsRowDxfId="5">
+    <tableColumn id="1" name="Wykonane zadanie" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="Ilość poświęconego czasu(h)" totalsRowFunction="custom" totalsRowDxfId="1">
       <totalsRowFormula>SUM(C24:C29)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Opis działania " totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Opis działania " totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -810,7 +810,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <f>SUM(C2:C7)</f>
         <v>29</v>
       </c>
